--- a/xlsx/rectangular_quartic.xlsx
+++ b/xlsx/rectangular_quartic.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>log₁₀h</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,10 +623,10 @@
         <v>-4.4094768008597836</v>
       </c>
       <c r="F2">
-        <v>-4.3898398753906527</v>
+        <v>-4.51989926122337</v>
       </c>
       <c r="G2">
-        <v>-4.5014364169203231</v>
+        <v>-4.501436416861916</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -646,10 +646,10 @@
         <v>-6.0415056311033819</v>
       </c>
       <c r="F3">
-        <v>-6.0507013303776169</v>
+        <v>-6.125935158389885</v>
       </c>
       <c r="G3">
-        <v>-6.1062388141272468</v>
+        <v>-6.106238813772903</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -669,10 +669,10 @@
         <v>-7.6766839939370231</v>
       </c>
       <c r="F4">
-        <v>-7.5669492576246125</v>
+        <v>-7.759708598870011</v>
       </c>
       <c r="G4">
-        <v>-7.7404753738290495</v>
+        <v>-7.7404753347957955</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -695,7 +695,7 @@
         <v>-9.1519088857101885</v>
       </c>
       <c r="G5">
-        <v>-9.2768143895645263</v>
+        <v>-9.273846687023518</v>
       </c>
     </row>
   </sheetData>
@@ -769,10 +769,10 @@
         <v>-2.5941236646803003</v>
       </c>
       <c r="F2">
-        <v>-2.5928379750979338</v>
+        <v>-2.5946779328223837</v>
       </c>
       <c r="G2">
-        <v>-2.5943325481182944</v>
+        <v>-2.5943325481161947</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -792,10 +792,10 @@
         <v>-3.6155208393413814</v>
       </c>
       <c r="F3">
-        <v>-3.6155441671751576</v>
+        <v>-3.615614853848913</v>
       </c>
       <c r="G3">
-        <v>-3.6155565057394758</v>
+        <v>-3.615556505685862</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -815,10 +815,10 @@
         <v>-4.7539278291058658</v>
       </c>
       <c r="F4">
-        <v>-4.7538907095107108</v>
+        <v>-4.753966525224437</v>
       </c>
       <c r="G4">
-        <v>-4.7539476718126616</v>
+        <v>-4.75394766831922</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -841,7 +841,7 @@
         <v>-5.9312131429723065</v>
       </c>
       <c r="G5">
-        <v>-5.9311623359088799</v>
+        <v>-5.931164405798729</v>
       </c>
     </row>
   </sheetData>
@@ -912,10 +912,10 @@
         <v>-2.1375705596755128</v>
       </c>
       <c r="F2">
-        <v>-2.1376647119251855</v>
+        <v>-2.137615643999685</v>
       </c>
       <c r="G2">
-        <v>-2.137512063016191</v>
+        <v>-2.1375120630142583</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -938,10 +938,10 @@
         <v>-3.13355061099643</v>
       </c>
       <c r="F3">
-        <v>-3.1335626513914114</v>
+        <v>-3.1334352256614233</v>
       </c>
       <c r="G3">
-        <v>-3.1334639819484922</v>
+        <v>-3.133463981925546</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -964,10 +964,10 @@
         <v>-4.1800149064347307</v>
       </c>
       <c r="F4">
-        <v>-4.1793194612115228</v>
+        <v>-4.180009036864485</v>
       </c>
       <c r="G4">
-        <v>-4.1800694846853705</v>
+        <v>-4.180069483879443</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -993,7 +993,7 @@
         <v>-5.2361312947082492</v>
       </c>
       <c r="G5">
-        <v>-5.2361604878674628</v>
+        <v>-5.236160570480515</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1066,10 +1066,10 @@
         <v>-1.1925130027145141</v>
       </c>
       <c r="F2">
-        <v>-1.1915356117302658</v>
+        <v>-1.1927568531395951</v>
       </c>
       <c r="G2">
-        <v>-1.1927948342720001</v>
+        <v>-1.192794834271612</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1092,10 +1092,10 @@
         <v>-1.6926363747519904</v>
       </c>
       <c r="F3">
-        <v>-1.6926861126951271</v>
+        <v>-1.6926087244372845</v>
       </c>
       <c r="G3">
-        <v>-1.6926666438547511</v>
+        <v>-1.692666643854304</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1118,10 +1118,10 @@
         <v>-2.2537375174909391</v>
       </c>
       <c r="F4">
-        <v>-2.2537008317153595</v>
+        <v>-2.253699825423356</v>
       </c>
       <c r="G4">
-        <v>-2.2537286656976079</v>
+        <v>-2.253728665686383</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1147,7 +1147,7 @@
         <v>-2.8380411014622924</v>
       </c>
       <c r="G5">
-        <v>-2.8380275530706163</v>
+        <v>-2.8380275547150084</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>

--- a/xlsx/rectangular_quartic.xlsx
+++ b/xlsx/rectangular_quartic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/code/hrrk-plate/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/code/hrbc-plate/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D47103-3E1C-3E4E-9A68-8B031D8BF476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A85387F-98CF-FA42-8766-8E8A9402B882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="5" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="1" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
   </bookViews>
   <sheets>
     <sheet name="h" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t>log₁₀h</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5357BA77-AC59-9943-8B53-4516BD1B37CC}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -623,10 +623,10 @@
         <v>-4.4094768008597836</v>
       </c>
       <c r="F2">
-        <v>-4.51989926122337</v>
+        <v>-4.5206672635152341</v>
       </c>
       <c r="G2">
-        <v>-4.501436416861916</v>
+        <v>-4.5014364168619156</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -646,10 +646,10 @@
         <v>-6.0415056311033819</v>
       </c>
       <c r="F3">
-        <v>-6.125935158389885</v>
+        <v>-6.1169962203645669</v>
       </c>
       <c r="G3">
-        <v>-6.106238813772903</v>
+        <v>-6.1062388137729027</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -669,7 +669,7 @@
         <v>-7.6766839939370231</v>
       </c>
       <c r="F4">
-        <v>-7.759708598870011</v>
+        <v>-7.7437591996595518</v>
       </c>
       <c r="G4">
         <v>-7.7404753347957955</v>
@@ -689,13 +689,13 @@
         <v>-4.525194682780544</v>
       </c>
       <c r="E5">
-        <v>-9.1048545326428023</v>
+        <v>-9.1797158299290356</v>
       </c>
       <c r="F5">
-        <v>-9.1519088857101885</v>
+        <v>-9.2767072707827065</v>
       </c>
       <c r="G5">
-        <v>-9.273846687023518</v>
+        <v>-9.2738466870235179</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +712,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -769,7 +769,7 @@
         <v>-2.5941236646803003</v>
       </c>
       <c r="F2">
-        <v>-2.5946779328223837</v>
+        <v>-2.5947003136377593</v>
       </c>
       <c r="G2">
         <v>-2.5943325481161947</v>
@@ -792,10 +792,10 @@
         <v>-3.6155208393413814</v>
       </c>
       <c r="F3">
-        <v>-3.615614853848913</v>
+        <v>-3.6155888452745986</v>
       </c>
       <c r="G3">
-        <v>-3.615556505685862</v>
+        <v>-3.6155565056858618</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -815,10 +815,10 @@
         <v>-4.7539278291058658</v>
       </c>
       <c r="F4">
-        <v>-4.753966525224437</v>
+        <v>-4.7539507125406786</v>
       </c>
       <c r="G4">
-        <v>-4.75394766831922</v>
+        <v>-4.7539476683192197</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -835,13 +835,13 @@
         <v>-3.7436144992338467</v>
       </c>
       <c r="E5">
-        <v>-5.9309369750801419</v>
+        <v>-5.9311667251637159</v>
       </c>
       <c r="F5">
-        <v>-5.9312131429723065</v>
+        <v>-5.9311601672886276</v>
       </c>
       <c r="G5">
-        <v>-5.931164405798729</v>
+        <v>-5.9311644057987287</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +855,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -912,7 +912,7 @@
         <v>-2.1375705596755128</v>
       </c>
       <c r="F2">
-        <v>-2.137615643999685</v>
+        <v>-2.1376002748613798</v>
       </c>
       <c r="G2">
         <v>-2.1375120630142583</v>
@@ -938,10 +938,10 @@
         <v>-3.13355061099643</v>
       </c>
       <c r="F3">
-        <v>-3.1334352256614233</v>
+        <v>-3.1334528405462936</v>
       </c>
       <c r="G3">
-        <v>-3.133463981925546</v>
+        <v>-3.1334639819255461</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -964,10 +964,10 @@
         <v>-4.1800149064347307</v>
       </c>
       <c r="F4">
-        <v>-4.180009036864485</v>
+        <v>-4.1800613508676108</v>
       </c>
       <c r="G4">
-        <v>-4.180069483879443</v>
+        <v>-4.1800694838794428</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -987,13 +987,13 @@
         <v>-2.0322031902426008</v>
       </c>
       <c r="E5">
-        <v>-5.2350121036254249</v>
+        <v>-5.2362032269589909</v>
       </c>
       <c r="F5">
-        <v>-5.2361312947082492</v>
+        <v>-5.2361685775720286</v>
       </c>
       <c r="G5">
-        <v>-5.236160570480515</v>
+        <v>-5.2361605704805152</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1066,10 +1066,10 @@
         <v>-1.1925130027145141</v>
       </c>
       <c r="F2">
-        <v>-1.1927568531395951</v>
+        <v>-1.1926350740144864</v>
       </c>
       <c r="G2">
-        <v>-1.192794834271612</v>
+        <v>-1.1927948342716119</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1092,10 +1092,10 @@
         <v>-1.6926363747519904</v>
       </c>
       <c r="F3">
-        <v>-1.6926087244372845</v>
+        <v>-1.6926316057541293</v>
       </c>
       <c r="G3">
-        <v>-1.692666643854304</v>
+        <v>-1.6926666438543041</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1118,10 +1118,10 @@
         <v>-2.2537375174909391</v>
       </c>
       <c r="F4">
-        <v>-2.253699825423356</v>
+        <v>-2.2537236398629497</v>
       </c>
       <c r="G4">
-        <v>-2.253728665686383</v>
+        <v>-2.2537286656863831</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1141,10 +1141,10 @@
         <v>-0.73608262115002931</v>
       </c>
       <c r="E5">
-        <v>-2.838027525644053</v>
+        <v>-2.8380423146503975</v>
       </c>
       <c r="F5">
-        <v>-2.8380411014622924</v>
+        <v>-2.8380291858910844</v>
       </c>
       <c r="G5">
         <v>-2.8380275547150084</v>
@@ -1163,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DD04AF-8E27-EE44-BDE0-93CF9AA52A93}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/xlsx/rectangular_quartic.xlsx
+++ b/xlsx/rectangular_quartic.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>log₁₀h</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -608,7 +608,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>-2.0784780632394098</v>
+        <v>-2.071750414209133</v>
       </c>
       <c r="B2">
         <v>-2.0629804391080655</v>
@@ -617,21 +617,21 @@
         <v>-2.0788232313204338</v>
       </c>
       <c r="D2">
-        <v>-2.0637312172852424</v>
+        <v>-2.0699370736549043</v>
       </c>
       <c r="E2">
-        <v>-4.4094768008597836</v>
+        <v>-4.3780734165433675</v>
       </c>
       <c r="F2">
-        <v>-4.5206672635152341</v>
+        <v>-4.507361312841398</v>
       </c>
       <c r="G2">
-        <v>-4.5014364168619156</v>
+        <v>-4.547082114378908</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>-2.7370134422551429</v>
+        <v>-2.7542628631110073</v>
       </c>
       <c r="B3">
         <v>-2.7296036557315109</v>
@@ -640,21 +640,21 @@
         <v>-2.7526618597833643</v>
       </c>
       <c r="D3">
-        <v>-2.7524928879470503</v>
+        <v>-2.7512635455538392</v>
       </c>
       <c r="E3">
-        <v>-6.0415056311033819</v>
+        <v>-5.924542060180734</v>
       </c>
       <c r="F3">
-        <v>-6.1169962203645669</v>
+        <v>-6.081776506206575</v>
       </c>
       <c r="G3">
-        <v>-6.1062388137729027</v>
+        <v>-6.106238815942356</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>-3.6197380841286244</v>
+        <v>-3.6389615504933635</v>
       </c>
       <c r="B4">
         <v>-3.6156603910308545</v>
@@ -663,21 +663,21 @@
         <v>-3.6378608640995989</v>
       </c>
       <c r="D4">
-        <v>-3.6336494906265759</v>
+        <v>-3.637137445693949</v>
       </c>
       <c r="E4">
-        <v>-7.6766839939370231</v>
+        <v>-7.496371638441185</v>
       </c>
       <c r="F4">
-        <v>-7.7437591996595518</v>
+        <v>-7.743759279516614</v>
       </c>
       <c r="G4">
-        <v>-7.7404753347957955</v>
+        <v>-7.740475213299417</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>-4.5086431879719164</v>
+        <v>-4.52965421176525</v>
       </c>
       <c r="B5">
         <v>-4.5067327946437743</v>
@@ -686,16 +686,16 @@
         <v>-4.5272043161385787</v>
       </c>
       <c r="D5">
-        <v>-4.525194682780544</v>
+        <v>-4.528810250103874</v>
       </c>
       <c r="E5">
-        <v>-9.1797158299290356</v>
+        <v>-8.690993207444548</v>
       </c>
       <c r="F5">
-        <v>-9.2767072707827065</v>
+        <v>-9.277194982429876</v>
       </c>
       <c r="G5">
-        <v>-9.2738466870235179</v>
+        <v>-9.277035534804783</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-1.7081360856361736</v>
+        <v>-1.7012084600358064</v>
       </c>
       <c r="B2">
         <v>-1.6986840274678721</v>
@@ -763,21 +763,21 @@
         <v>-1.7079144367319397</v>
       </c>
       <c r="D2">
-        <v>-1.698799182842633</v>
+        <v>-1.699471342620469</v>
       </c>
       <c r="E2">
-        <v>-2.5941236646803003</v>
+        <v>-2.5933112593143224</v>
       </c>
       <c r="F2">
-        <v>-2.5947003136377593</v>
+        <v>-2.594784965364742</v>
       </c>
       <c r="G2">
-        <v>-2.5943325481161947</v>
+        <v>-2.5952808654778163</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-2.2772195120908658</v>
+        <v>-2.294716442319636</v>
       </c>
       <c r="B3">
         <v>-2.2732971691061623</v>
@@ -786,21 +786,21 @@
         <v>-2.2931292915186754</v>
       </c>
       <c r="D3">
-        <v>-2.2929537401407503</v>
+        <v>-2.2916297112472317</v>
       </c>
       <c r="E3">
-        <v>-3.6155208393413814</v>
+        <v>-3.6153570922459544</v>
       </c>
       <c r="F3">
-        <v>-3.6155888452745986</v>
+        <v>-3.61548880102711</v>
       </c>
       <c r="G3">
-        <v>-3.6155565056858618</v>
+        <v>-3.6155565059458326</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-2.9874257301183804</v>
+        <v>-3.011601942726578</v>
       </c>
       <c r="B4">
         <v>-2.9869880453271223</v>
@@ -809,21 +809,21 @@
         <v>-3.0107822422010053</v>
       </c>
       <c r="D4">
-        <v>-3.0104586499836863</v>
+        <v>-3.0096339854222554</v>
       </c>
       <c r="E4">
-        <v>-4.7539278291058658</v>
+        <v>-4.753855855295297</v>
       </c>
       <c r="F4">
-        <v>-4.7539507125406786</v>
+        <v>-4.753950698813019</v>
       </c>
       <c r="G4">
-        <v>-4.7539476683192197</v>
+        <v>-4.753947652544275</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-3.7142563207412942</v>
+        <v>-3.7438086713764074</v>
       </c>
       <c r="B5">
         <v>-3.7142318270879136</v>
@@ -832,16 +832,16 @@
         <v>-3.7436365279544694</v>
       </c>
       <c r="D5">
-        <v>-3.7436144992338467</v>
+        <v>-3.7429481980743144</v>
       </c>
       <c r="E5">
-        <v>-5.9311667251637159</v>
+        <v>-5.931310112763389</v>
       </c>
       <c r="F5">
-        <v>-5.9311601672886276</v>
+        <v>-5.931159818774784</v>
       </c>
       <c r="G5">
-        <v>-5.9311644057987287</v>
+        <v>-5.9311621811038195</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +897,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-1.0466206506762927</v>
+        <v>-1.0421770912739212</v>
       </c>
       <c r="B2">
         <v>-1.0372762626974157</v>
@@ -906,16 +906,16 @@
         <v>-1.048413465691254</v>
       </c>
       <c r="D2">
-        <v>-1.0395677490717539</v>
+        <v>-1.040275176446378</v>
       </c>
       <c r="E2">
-        <v>-2.1375705596755128</v>
+        <v>-2.137760579535558</v>
       </c>
       <c r="F2">
-        <v>-2.1376002748613798</v>
+        <v>-2.1379200673977237</v>
       </c>
       <c r="G2">
-        <v>-2.1375120630142583</v>
+        <v>-2.1377713618433103</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -923,7 +923,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-1.1493931875197407</v>
+        <v>-1.1869274649185586</v>
       </c>
       <c r="B3">
         <v>-1.1420575650872575</v>
@@ -932,16 +932,16 @@
         <v>-1.1847381971948612</v>
       </c>
       <c r="D3">
-        <v>-1.1844697588571083</v>
+        <v>-1.181998585894259</v>
       </c>
       <c r="E3">
-        <v>-3.13355061099643</v>
+        <v>-3.132841469450138</v>
       </c>
       <c r="F3">
-        <v>-3.1334528405462936</v>
+        <v>-3.1335292178759904</v>
       </c>
       <c r="G3">
-        <v>-3.1334639819255461</v>
+        <v>-3.133463981982497</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -949,7 +949,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-1.5473150479322311</v>
+        <v>-1.6073652269774867</v>
       </c>
       <c r="B4">
         <v>-1.5465310562380201</v>
@@ -958,16 +958,16 @@
         <v>-1.6061946998804315</v>
       </c>
       <c r="D4">
-        <v>-1.605641397455827</v>
+        <v>-1.605626842516957</v>
       </c>
       <c r="E4">
-        <v>-4.1800149064347307</v>
+        <v>-4.178695911283619</v>
       </c>
       <c r="F4">
-        <v>-4.1800613508676108</v>
+        <v>-4.1800613500884545</v>
       </c>
       <c r="G4">
-        <v>-4.1800694838794428</v>
+        <v>-4.180069484115829</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -975,7 +975,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-1.9621466169779525</v>
+        <v>-2.032454800279195</v>
       </c>
       <c r="B5">
         <v>-1.9621220147056411</v>
@@ -984,16 +984,16 @@
         <v>-2.0322212175279217</v>
       </c>
       <c r="D5">
-        <v>-2.0322031902426008</v>
+        <v>-2.032200754657939</v>
       </c>
       <c r="E5">
-        <v>-5.2362032269589909</v>
+        <v>-5.236199861276322</v>
       </c>
       <c r="F5">
-        <v>-5.2361685775720286</v>
+        <v>-5.236168567979412</v>
       </c>
       <c r="G5">
-        <v>-5.2361605704805152</v>
+        <v>-5.236160491570579</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-0.38856976531747295</v>
+        <v>-0.38106931267356786</v>
       </c>
       <c r="B2">
         <v>-0.38612714536456832</v>
@@ -1060,16 +1060,16 @@
         <v>-0.38430319832017995</v>
       </c>
       <c r="D2">
-        <v>-0.38168349801618562</v>
+        <v>-0.38074551107555493</v>
       </c>
       <c r="E2">
-        <v>-1.1925130027145141</v>
+        <v>-1.1911259364466409</v>
       </c>
       <c r="F2">
-        <v>-1.1926350740144864</v>
+        <v>-1.192737987814598</v>
       </c>
       <c r="G2">
-        <v>-1.1927948342716119</v>
+        <v>-1.1929239824315019</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-0.45854649661889191</v>
+        <v>-0.46139707433031274</v>
       </c>
       <c r="B3">
         <v>-0.45748352114864865</v>
@@ -1086,16 +1086,16 @@
         <v>-0.46039190037412375</v>
       </c>
       <c r="D3">
-        <v>-0.46022733762950579</v>
+        <v>-0.4595198828009811</v>
       </c>
       <c r="E3">
-        <v>-1.6926363747519904</v>
+        <v>-1.692340691230632</v>
       </c>
       <c r="F3">
-        <v>-1.6926316057541293</v>
+        <v>-1.6927212372807718</v>
       </c>
       <c r="G3">
-        <v>-1.6926666438543041</v>
+        <v>-1.6926666438594729</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-0.58627062823722043</v>
+        <v>-0.5933629369133744</v>
       </c>
       <c r="B4">
         <v>-0.58618118016761589</v>
@@ -1112,16 +1112,16 @@
         <v>-0.59289715613727378</v>
       </c>
       <c r="D4">
-        <v>-0.59287216958567279</v>
+        <v>-0.5909909398853157</v>
       </c>
       <c r="E4">
-        <v>-2.2537375174909391</v>
+        <v>-2.2536726970601095</v>
       </c>
       <c r="F4">
-        <v>-2.2537236398629497</v>
+        <v>-2.2537236395592646</v>
       </c>
       <c r="G4">
-        <v>-2.2537286656863831</v>
+        <v>-2.253728665611085</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-0.72552947889732844</v>
+        <v>-0.736155947605176</v>
       </c>
       <c r="B5">
         <v>-0.7255257901963863</v>
@@ -1138,16 +1138,16 @@
         <v>-0.73608363376333463</v>
       </c>
       <c r="D5">
-        <v>-0.73608262115002931</v>
+        <v>-0.7346299088900753</v>
       </c>
       <c r="E5">
-        <v>-2.8380423146503975</v>
+        <v>-2.838042231538921</v>
       </c>
       <c r="F5">
-        <v>-2.8380291858910844</v>
+        <v>-2.838029184048394</v>
       </c>
       <c r="G5">
-        <v>-2.8380275547150084</v>
+        <v>-2.8380275529980463</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>

--- a/xlsx/rectangular_quartic.xlsx
+++ b/xlsx/rectangular_quartic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/code/hrbc-plate/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/program/hrbc-plate/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A85387F-98CF-FA42-8766-8E8A9402B882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC20480-FB4D-4440-A5F3-D97D2AA3707A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="1" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="21900" activeTab="1" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
   </bookViews>
   <sheets>
     <sheet name="h" sheetId="5" r:id="rId1"/>
@@ -166,17 +166,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -200,7 +194,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -488,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -565,7 +559,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -600,11 +594,11 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
@@ -620,13 +614,13 @@
         <v>-2.0699370736549043</v>
       </c>
       <c r="E2">
-        <v>-4.3780734165433675</v>
+        <v>-4.421069206501604</v>
       </c>
       <c r="F2">
-        <v>-4.507361312841398</v>
+        <v>-4.5073613128413976</v>
       </c>
       <c r="G2">
-        <v>-4.547082114378908</v>
+        <v>-4.5470821143789077</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -643,13 +637,13 @@
         <v>-2.7512635455538392</v>
       </c>
       <c r="E3">
-        <v>-5.924542060180734</v>
+        <v>-6.041505613627853</v>
       </c>
       <c r="F3">
         <v>-6.081776506206575</v>
       </c>
       <c r="G3">
-        <v>-6.106238815942356</v>
+        <v>-6.1062388159423557</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -663,21 +657,21 @@
         <v>-3.6378608640995989</v>
       </c>
       <c r="D4">
-        <v>-3.637137445693949</v>
+        <v>-3.6371374456939489</v>
       </c>
       <c r="E4">
-        <v>-7.496371638441185</v>
+        <v>-7.676679740420282</v>
       </c>
       <c r="F4">
-        <v>-7.743759279516614</v>
+        <v>-7.7437592795166141</v>
       </c>
       <c r="G4">
-        <v>-7.740475213299417</v>
+        <v>-7.7404752132994172</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>-4.52965421176525</v>
+        <v>-4.5295945421240713</v>
       </c>
       <c r="B5">
         <v>-4.5067327946437743</v>
@@ -686,16 +680,16 @@
         <v>-4.5272043161385787</v>
       </c>
       <c r="D5">
-        <v>-4.528810250103874</v>
+        <v>-4.5288102501038736</v>
       </c>
       <c r="E5">
-        <v>-8.690993207444548</v>
+        <v>-9.1785318915507137</v>
       </c>
       <c r="F5">
-        <v>-9.277194982429876</v>
+        <v>-9.2771949824298758</v>
       </c>
       <c r="G5">
-        <v>-9.277035534804783</v>
+        <v>-9.2770355348047833</v>
       </c>
     </row>
   </sheetData>
@@ -709,7 +703,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B4B654-5763-AF48-A7F2-52B537A84F56}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G5"/>
@@ -726,7 +720,7 @@
     <col min="7" max="7" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -748,11 +742,8 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>-1.7012084600358064</v>
       </c>
@@ -763,21 +754,21 @@
         <v>-1.7079144367319397</v>
       </c>
       <c r="D2">
-        <v>-1.699471342620469</v>
+        <v>-1.6994713426204691</v>
       </c>
       <c r="E2">
-        <v>-2.5933112593143224</v>
+        <v>-2.5950705437342263</v>
       </c>
       <c r="F2">
-        <v>-2.594784965364742</v>
+        <v>-2.5947849653647421</v>
       </c>
       <c r="G2">
         <v>-2.5952808654778163</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>-2.294716442319636</v>
+        <v>-2.2947164423196358</v>
       </c>
       <c r="B3">
         <v>-2.2732971691061623</v>
@@ -789,7 +780,7 @@
         <v>-2.2916297112472317</v>
       </c>
       <c r="E3">
-        <v>-3.6153570922459544</v>
+        <v>-3.615520839773962</v>
       </c>
       <c r="F3">
         <v>-3.61548880102711</v>
@@ -798,9 +789,9 @@
         <v>-3.6155565059458326</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>-3.011601942726578</v>
+        <v>-3.0116019427265779</v>
       </c>
       <c r="B4">
         <v>-2.9869880453271223</v>
@@ -812,18 +803,18 @@
         <v>-3.0096339854222554</v>
       </c>
       <c r="E4">
-        <v>-4.753855855295297</v>
+        <v>-4.753927919708682</v>
       </c>
       <c r="F4">
-        <v>-4.753950698813019</v>
+        <v>-4.7539506988130187</v>
       </c>
       <c r="G4">
-        <v>-4.753947652544275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>-4.7539476525442748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>-3.7438086713764074</v>
+        <v>-3.743752103561913</v>
       </c>
       <c r="B5">
         <v>-3.7142318270879136</v>
@@ -835,7 +826,7 @@
         <v>-3.7429481980743144</v>
       </c>
       <c r="E5">
-        <v>-5.931310112763389</v>
+        <v>-5.9311677061402941</v>
       </c>
       <c r="F5">
         <v>-5.931159818774784</v>
@@ -891,9 +882,9 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
@@ -909,7 +900,7 @@
         <v>-1.040275176446378</v>
       </c>
       <c r="E2">
-        <v>-2.137760579535558</v>
+        <v>-2.1378227402331142</v>
       </c>
       <c r="F2">
         <v>-2.1379200673977237</v>
@@ -935,7 +926,7 @@
         <v>-1.181998585894259</v>
       </c>
       <c r="E3">
-        <v>-3.132841469450138</v>
+        <v>-3.1335506110108597</v>
       </c>
       <c r="F3">
         <v>-3.1335292178759904</v>
@@ -958,16 +949,16 @@
         <v>-1.6061946998804315</v>
       </c>
       <c r="D4">
-        <v>-1.605626842516957</v>
+        <v>-1.6056268425169571</v>
       </c>
       <c r="E4">
-        <v>-4.178695911283619</v>
+        <v>-4.180014902480925</v>
       </c>
       <c r="F4">
         <v>-4.1800613500884545</v>
       </c>
       <c r="G4">
-        <v>-4.180069484115829</v>
+        <v>-4.1800694841158288</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -975,7 +966,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-2.032454800279195</v>
+        <v>-2.0323826104048415</v>
       </c>
       <c r="B5">
         <v>-1.9621220147056411</v>
@@ -984,16 +975,16 @@
         <v>-2.0322212175279217</v>
       </c>
       <c r="D5">
-        <v>-2.032200754657939</v>
+        <v>-2.0322007546579388</v>
       </c>
       <c r="E5">
-        <v>-5.236199861276322</v>
+        <v>-5.2362033259699672</v>
       </c>
       <c r="F5">
-        <v>-5.236168567979412</v>
+        <v>-5.2361685679794121</v>
       </c>
       <c r="G5">
-        <v>-5.236160491570579</v>
+        <v>-5.2361604915705788</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1045,9 +1036,9 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
@@ -1063,10 +1054,10 @@
         <v>-0.38074551107555493</v>
       </c>
       <c r="E2">
-        <v>-1.1911259364466409</v>
+        <v>-1.1926264082854583</v>
       </c>
       <c r="F2">
-        <v>-1.192737987814598</v>
+        <v>-1.1927379878145981</v>
       </c>
       <c r="G2">
         <v>-1.1929239824315019</v>
@@ -1086,10 +1077,10 @@
         <v>-0.46039190037412375</v>
       </c>
       <c r="D3">
-        <v>-0.4595198828009811</v>
+        <v>-0.45951988280098111</v>
       </c>
       <c r="E3">
-        <v>-1.692340691230632</v>
+        <v>-1.6926363747598705</v>
       </c>
       <c r="F3">
         <v>-1.6927212372807718</v>
@@ -1103,7 +1094,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-0.5933629369133744</v>
+        <v>-0.59336293691337438</v>
       </c>
       <c r="B4">
         <v>-0.58618118016761589</v>
@@ -1115,13 +1106,13 @@
         <v>-0.5909909398853157</v>
       </c>
       <c r="E4">
-        <v>-2.2536726970601095</v>
+        <v>-2.2537375174751735</v>
       </c>
       <c r="F4">
         <v>-2.2537236395592646</v>
       </c>
       <c r="G4">
-        <v>-2.253728665611085</v>
+        <v>-2.2537286656110851</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1129,7 +1120,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-0.736155947605176</v>
+        <v>-0.73612425415103688</v>
       </c>
       <c r="B5">
         <v>-0.7255257901963863</v>
@@ -1138,10 +1129,10 @@
         <v>-0.73608363376333463</v>
       </c>
       <c r="D5">
-        <v>-0.7346299088900753</v>
+        <v>-0.73462990889007529</v>
       </c>
       <c r="E5">
-        <v>-2.838042231538921</v>
+        <v>-2.8380423162056116</v>
       </c>
       <c r="F5">
         <v>-2.838029184048394</v>
